--- a/Personal/PERSONLA ORFEI F.N..xlsx
+++ b/Personal/PERSONLA ORFEI F.N..xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI880\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81F0172-085A-4174-8DB8-A06E93181BF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203728FA-2484-4273-A541-CDC6526E3EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="252" windowWidth="22308" windowHeight="16428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="492" yWindow="96" windowWidth="30000" windowHeight="16428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>NOMBRES Y APELLIDOS</t>
   </si>
   <si>
-    <t>ING. SIXTO VALENZUELA CONUMA</t>
-  </si>
-  <si>
     <t>ING. GERMUT ALVITES ASCUE</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>augustobnb@gmail.com</t>
+  </si>
+  <si>
+    <t>Ing. Juan F. Cisneros Sullcahuaman</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,22 +704,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -727,19 +727,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="11">
-        <v>998796322</v>
-      </c>
-      <c r="G4" s="12">
-        <v>27468</v>
-      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -747,14 +743,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12">
@@ -767,14 +763,14 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12">
@@ -787,14 +783,14 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="12">
@@ -807,14 +803,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12">
@@ -827,14 +823,14 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12">
@@ -847,14 +843,14 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12">
@@ -867,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
@@ -885,14 +881,14 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12">
@@ -905,7 +901,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="s">
@@ -923,14 +919,14 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12">
@@ -943,21 +939,21 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12">
         <v>25655</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -965,21 +961,21 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="12">
         <v>29123</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -987,21 +983,21 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12">
         <v>22860</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1009,11 +1005,11 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
@@ -1021,7 +1017,7 @@
         <v>31176</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1029,11 +1025,11 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
@@ -1041,7 +1037,7 @@
         <v>24379</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1049,21 +1045,21 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12">
         <v>30709</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1071,21 +1067,21 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12">
         <v>30413</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1093,11 +1089,11 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
@@ -1105,7 +1101,7 @@
         <v>31007</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1113,21 +1109,21 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="12">
         <v>34360</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1135,11 +1131,11 @@
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
@@ -1147,7 +1143,7 @@
         <v>34187</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1155,21 +1151,21 @@
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12">
         <v>35040</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1177,11 +1173,11 @@
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
@@ -1189,7 +1185,7 @@
         <v>21101</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1197,11 +1193,11 @@
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
@@ -1209,7 +1205,7 @@
         <v>26319</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1217,14 +1213,14 @@
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="12">
@@ -1237,14 +1233,14 @@
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="12">
@@ -1257,11 +1253,11 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
@@ -1272,52 +1268,52 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E32" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="F34" s="5">
         <v>957733652</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="F35" s="5">
         <v>956746224</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Personal/PERSONLA ORFEI F.N..xlsx
+++ b/Personal/PERSONLA ORFEI F.N..xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI-GitHub\Gestion-ORFEI\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203728FA-2484-4273-A541-CDC6526E3EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEAF8EF-A06A-45D3-9699-D1E123A5FD3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="96" windowWidth="30000" windowHeight="16428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="1110" windowWidth="13800" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$3:$G$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$G$30</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -659,24 +665,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="28.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="2"/>
+    <col min="5" max="5" width="26.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -687,7 +693,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -696,7 +702,7 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -722,7 +728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -738,7 +744,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -758,7 +764,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -778,7 +784,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -798,7 +804,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -818,7 +824,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -838,7 +844,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -858,7 +864,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -876,7 +882,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -896,7 +902,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -914,7 +920,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>11</v>
       </c>
@@ -934,7 +940,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>12</v>
       </c>
@@ -956,7 +962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>13</v>
       </c>
@@ -978,7 +984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>14</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>15</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>16</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>17</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>18</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>19</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>20</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>22</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>23</v>
       </c>
@@ -1188,7 +1194,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>24</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>25</v>
       </c>
@@ -1228,7 +1234,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>26</v>
       </c>
@@ -1248,7 +1254,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>27</v>
       </c>
@@ -1266,7 +1272,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>61</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>65</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
